--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svenspa/Documents/Python/StockExchangeAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1D90F2-168A-4543-861E-FACDD521FDE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956EAC1D-791F-B34F-95DD-9F570BE0C1D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{F58B6343-EBD7-024C-A22A-FE4330D07C7E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{F58B6343-EBD7-024C-A22A-FE4330D07C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,181 +51,181 @@
     <t>MMM</t>
   </si>
   <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>UTX</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>visa</t>
+  </si>
+  <si>
+    <t>nike</t>
+  </si>
+  <si>
+    <t>cisco</t>
+  </si>
+  <si>
+    <t>jpmorgan-chase</t>
+  </si>
+  <si>
+    <t>boeing</t>
+  </si>
+  <si>
+    <t>caterpillar</t>
+  </si>
+  <si>
+    <t>chevron</t>
+  </si>
+  <si>
+    <t>coca-cola</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>exxon</t>
+  </si>
+  <si>
+    <t>goldman-sachs</t>
+  </si>
+  <si>
+    <t>home-depot</t>
+  </si>
+  <si>
+    <t>ibm</t>
+  </si>
+  <si>
+    <t>intel</t>
+  </si>
+  <si>
+    <t>johnson-johnson</t>
+  </si>
+  <si>
+    <t>mcdonalds</t>
+  </si>
+  <si>
+    <t>merck</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>pfizer</t>
+  </si>
+  <si>
+    <t>procter-gamble</t>
+  </si>
+  <si>
+    <t>travelers</t>
+  </si>
+  <si>
+    <t>unitedhealth-group</t>
+  </si>
+  <si>
+    <t>united-technologies</t>
+  </si>
+  <si>
+    <t>verizon</t>
+  </si>
+  <si>
+    <t>walmart</t>
+  </si>
+  <si>
+    <t>algreens</t>
+  </si>
+  <si>
+    <t>disney</t>
+  </si>
+  <si>
     <t>AXP</t>
   </si>
   <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>DOW</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>MCD</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>TRV</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>UTX</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>WBA</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>3m</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>visa</t>
-  </si>
-  <si>
-    <t>nike</t>
-  </si>
-  <si>
-    <t>cisco</t>
-  </si>
-  <si>
     <t>american-express</t>
-  </si>
-  <si>
-    <t>jpmorgan-chase</t>
-  </si>
-  <si>
-    <t>boeing</t>
-  </si>
-  <si>
-    <t>caterpillar</t>
-  </si>
-  <si>
-    <t>chevron</t>
-  </si>
-  <si>
-    <t>coca-cola</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>exxon</t>
-  </si>
-  <si>
-    <t>goldman-sachs</t>
-  </si>
-  <si>
-    <t>home-depot</t>
-  </si>
-  <si>
-    <t>ibm</t>
-  </si>
-  <si>
-    <t>intel</t>
-  </si>
-  <si>
-    <t>johnson-johnson</t>
-  </si>
-  <si>
-    <t>mcdonalds</t>
-  </si>
-  <si>
-    <t>merck</t>
-  </si>
-  <si>
-    <t>microsoft</t>
-  </si>
-  <si>
-    <t>pfizer</t>
-  </si>
-  <si>
-    <t>procter-gamble</t>
-  </si>
-  <si>
-    <t>travelers</t>
-  </si>
-  <si>
-    <t>unitedhealth-group</t>
-  </si>
-  <si>
-    <t>united-technologies</t>
-  </si>
-  <si>
-    <t>verizon</t>
-  </si>
-  <si>
-    <t>walmart</t>
-  </si>
-  <si>
-    <t>algreens</t>
-  </si>
-  <si>
-    <t>disney</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,239 +598,239 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svenspa/Documents/Python/StockExchangeAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956EAC1D-791F-B34F-95DD-9F570BE0C1D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE8EF86-C39E-D349-A6E4-847131DC798D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{F58B6343-EBD7-024C-A22A-FE4330D07C7E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="tickers" localSheetId="0">Sheet1!$A$1:$A$30</definedName>
+    <definedName name="tickers" localSheetId="0">Sheet1!$A$1:$A$29</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>MMM</t>
   </si>
@@ -69,9 +69,6 @@
     <t>KO</t>
   </si>
   <si>
-    <t>DOW</t>
-  </si>
-  <si>
     <t>XOM</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
   </si>
   <si>
     <t>coca-cola</t>
-  </si>
-  <si>
-    <t>dow</t>
   </si>
   <si>
     <t>exxon</t>
@@ -581,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627A376A-58FA-324E-ADAC-AEC882A483BA}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,15 +592,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -614,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -622,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -630,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -638,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -646,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -654,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -662,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -670,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -686,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -702,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -710,7 +704,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -718,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -726,7 +720,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -734,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,7 +736,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -750,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,7 +752,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -766,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -774,7 +768,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -782,7 +776,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -790,7 +784,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -798,7 +792,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -806,7 +800,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -814,7 +808,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -822,15 +816,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
